--- a/doc/方法接口参数_20190526.xlsx
+++ b/doc/方法接口参数_20190526.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="578">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4217,6 +4217,10 @@
       </rPr>
       <t>100.198.255:8080/stock_tk_case/delStockTKCase</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integer deptId;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4649,7 +4653,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4716,9 +4720,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4761,9 +4762,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4792,6 +4790,24 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5095,12 +5111,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5308,13 +5324,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="51" t="s">
         <v>531</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="51" t="s">
         <v>532</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -5331,10 +5347,10 @@
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>535</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="36" t="s">
         <v>539</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -5348,13 +5364,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="109.5" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="51" t="s">
         <v>540</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="51" t="s">
         <v>543</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -5366,28 +5382,28 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="27" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="14" t="s">
@@ -5425,27 +5441,37 @@
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="46" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="47" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" t="s">
+      <c r="C27" s="48" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5499,7 +5525,7 @@
       <c r="C2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>319</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -5519,7 +5545,7 @@
       <c r="C3" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>331</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5559,7 +5585,7 @@
       <c r="C5" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>339</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -5592,7 +5618,7 @@
     </row>
     <row r="10" spans="1:6" ht="52.5" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>325</v>
       </c>
@@ -5675,7 +5701,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="30"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
@@ -5743,7 +5769,7 @@
       <c r="C2" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>387</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -5763,7 +5789,7 @@
       <c r="C3" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>397</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5783,7 +5809,7 @@
       <c r="C4" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>402</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -5822,7 +5848,7 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5982,7 +6008,7 @@
       <c r="C2" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>379</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -6002,7 +6028,7 @@
       <c r="C3" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>344</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6022,7 +6048,7 @@
       <c r="C4" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>385</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -6081,7 +6107,7 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>351</v>
       </c>
     </row>
@@ -6213,7 +6239,7 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
@@ -6361,7 +6387,7 @@
       <c r="C6" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>368</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -6533,7 +6559,7 @@
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="29" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6625,7 +6651,7 @@
       <c r="C3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>466</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6748,7 +6774,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="38.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>219</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -6759,7 +6785,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>220</v>
       </c>
       <c r="C13" t="s">
@@ -6768,7 +6794,7 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="54" customHeight="1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>465</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -6777,7 +6803,7 @@
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="54" customHeight="1">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>221</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -6786,7 +6812,7 @@
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>222</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -6795,7 +6821,7 @@
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>445</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -6809,7 +6835,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6976,7 +7002,7 @@
       <c r="C2" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>458</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -6996,7 +7022,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="19"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>447</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -7017,7 +7043,7 @@
     </row>
     <row r="7" spans="1:6" ht="52.5" customHeight="1">
       <c r="A7" s="21"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>448</v>
       </c>
       <c r="C7" t="s">
@@ -7038,7 +7064,7 @@
       <c r="B9" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7087,7 +7113,7 @@
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
@@ -7212,12 +7238,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7605,92 +7631,92 @@
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="32" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="32" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="32" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="32" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="32" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="32" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="64" spans="3:4">
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="32" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="65" spans="3:4">
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="32" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="66" spans="3:4">
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="32" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="67" spans="3:4">
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="32" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
     </row>
     <row r="69" spans="3:4">
-      <c r="C69" s="32"/>
-      <c r="D69" s="33"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" t="s">
@@ -8553,12 +8579,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8706,28 +8732,28 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>544</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27">
       <c r="A9" s="5"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>548</v>
       </c>
       <c r="C9" s="6"/>
@@ -8752,7 +8778,7 @@
       <c r="F11" s="11"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="39" t="s">
         <v>555</v>
       </c>
       <c r="D13" t="s">
@@ -8767,7 +8793,7 @@
       <c r="C15" t="s">
         <v>549</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="39" t="s">
         <v>550</v>
       </c>
     </row>
@@ -8863,7 +8889,7 @@
       <c r="C2" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>523</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -8883,7 +8909,7 @@
       <c r="C3" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>523</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -8903,7 +8929,7 @@
       <c r="C4" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>527</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -8923,7 +8949,7 @@
       <c r="C5" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>524</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -8962,7 +8988,7 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8975,10 +9001,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="15" t="s">
         <v>115</v>
       </c>
@@ -9068,7 +9094,7 @@
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="30"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
@@ -9103,7 +9129,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -9162,7 +9188,7 @@
       <c r="C3" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>496</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -9182,7 +9208,7 @@
       <c r="C4" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>495</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -9202,7 +9228,7 @@
       <c r="C5" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>530</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -9222,7 +9248,7 @@
       <c r="C6" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>500</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -9242,7 +9268,7 @@
       <c r="C7" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>477</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -9257,10 +9283,10 @@
       <c r="B8" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>567</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -9275,10 +9301,10 @@
       <c r="B9" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>567</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -9303,7 +9329,7 @@
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>487</v>
       </c>
       <c r="C13" t="s">
@@ -9374,7 +9400,7 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
